--- a/medicine/Enfance/Søren_Jessen/Søren_Jessen.xlsx
+++ b/medicine/Enfance/Søren_Jessen/Søren_Jessen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%B8ren_Jessen</t>
+          <t>Søren_Jessen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Søren Jessen, né à Sønderborg le 8 avril 1963, est un illustrateur de livres pour enfants et un écrivain danois. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%B8ren_Jessen</t>
+          <t>Søren_Jessen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zambesi, son premier roman pour adultes, dont la traduction en français sous le titre Café Zambèze a été publiée en 2000, a reçu au Danemark le prix du premier roman la même année.  Il a été réédité en 2003[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zambesi, son premier roman pour adultes, dont la traduction en français sous le titre Café Zambèze a été publiée en 2000, a reçu au Danemark le prix du premier roman la même année.  Il a été réédité en 2003.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%B8ren_Jessen</t>
+          <t>Søren_Jessen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Café Zambèze (Zambesi, 2000), trad. du danois par Monique Christiansen, éd. Gaïa ; rééd. poche éd. 10/18</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%B8ren_Jessen</t>
+          <t>Søren_Jessen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prix du premier roman (Bogforums Debutantpris) 2000 pour  Café Zambèze
-(international) « Honour List » 2022[2] de l' IBBY, catégorie Illustration, pour  Fiskepigen </t>
+(international) « Honour List » 2022 de l' IBBY, catégorie Illustration, pour  Fiskepigen </t>
         </is>
       </c>
     </row>
